--- a/biology/Botanique/Edgar_T._Wherry/Edgar_T._Wherry.xlsx
+++ b/biology/Botanique/Edgar_T._Wherry/Edgar_T._Wherry.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,13 +490,15 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Edgar Theodore Wherry, né le 10 septembre 1885 à Philadelphie (États-Unis) et mort le 14 mai 1982, est un minéralogiste, pédologue et botaniste américain. Il avait un profond intérêt pour les fougères et les Sarracenia.
 Wherry a obtenu son baccalauréat en chimie en 1906 de l'Université de Pennsylvanie. Il a obtenu son doctorat en minéralogie en 1909 de la même université. De 1908 à 1912, il enseigne à l'Université Lehigh. Il a vécu à Washington de 1912 à 1930, travaillant une partie de ce temps comme conservateur adjoint de la minéralogie pour le Musée national d'histoire naturelle des États-Unis, ainsi que pour le Bureau de chimie du Département de l'Agriculture des États-Unis. Il a enseigné la botanique à l'Université de Pennsylvanie de 1930 à 1955, date à laquelle il a pris sa retraite. Il a écrit de nombreux articles en minéralogie au cours de ces années. Il a été le quatrième président de la Mineralogical Society of America (MSA) en 1923.
-Il s'est intéressé aux fougères à 30 ans et a beaucoup travaillé dans ce domaine le reste de sa vie. Il a été président de l'American Fern Society de 1934 à 1939. Il a écrit trois guides clés sur les fougères de l'est de l'Amérique du Nord. Le premier fut Guide to Eastern Ferns en 1937[1], suivi d'un The Fern Guide grandement mis à jour en 1961[2] et enfin The Southern Fern Guide en 1964. Il était à l'avant-garde des travaux taxonomiques sur les fougères et ses guides de terrain fournissaient une taxonomie beaucoup plus actuelle que les autres guides de l'époque. Il a fait don de toutes les redevances des guides de terrain de fougères à l'American Fern Society.
-L'Académie des sciences naturelles de l'Université Drexel conserve de nombreux spécimens botaniques qu'il a collectés en Pennsylvanie dans les années 1940 et 1950. Une initiative de crowdsourcing, organisée par le Mid-Atlantic Herbaria Consortium, numérisait ces archives en 2020[3].
-En 1964, il a reçu le prix commémoratif Mary-Soper-Pope en botanique[4].
+Il s'est intéressé aux fougères à 30 ans et a beaucoup travaillé dans ce domaine le reste de sa vie. Il a été président de l'American Fern Society de 1934 à 1939. Il a écrit trois guides clés sur les fougères de l'est de l'Amérique du Nord. Le premier fut Guide to Eastern Ferns en 1937, suivi d'un The Fern Guide grandement mis à jour en 1961 et enfin The Southern Fern Guide en 1964. Il était à l'avant-garde des travaux taxonomiques sur les fougères et ses guides de terrain fournissaient une taxonomie beaucoup plus actuelle que les autres guides de l'époque. Il a fait don de toutes les redevances des guides de terrain de fougères à l'American Fern Society.
+L'Académie des sciences naturelles de l'Université Drexel conserve de nombreux spécimens botaniques qu'il a collectés en Pennsylvanie dans les années 1940 et 1950. Une initiative de crowdsourcing, organisée par le Mid-Atlantic Herbaria Consortium, numérisait ces archives en 2020.
+En 1964, il a reçu le prix commémoratif Mary-Soper-Pope en botanique.
 Le prix Edgar-T.-Wherry a été créé en 1989 par la Société américaine de botanique pour le meilleur article présenté chaque année dans la section ptéridologique.
 </t>
         </is>
@@ -516,7 +528,9 @@
           <t>Plantes nommées d'après Wherry</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Asplenium ×wherryi D.M. Smith (A. bradleyi × A. montanum)
 Castilleja wherryana Pennell
@@ -555,9 +569,11 @@
           <t>Plantes nommées par Wherry</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Wherry est l'auteur de 109 noms de taxons végétaux et co-auteur de 11 autres. De plus, il a fait 223 combinaisons basées sur des noms préexistants[5]. En voici quelques exemples :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Wherry est l'auteur de 109 noms de taxons végétaux et co-auteur de 11 autres. De plus, il a fait 223 combinaisons basées sur des noms préexistants. En voici quelques exemples :
 Asplenium ×trudellii Wherry (A. montanum × A. pinnatifidum)
 Microgramma heterophylla (L.) Wherry
 Sarracenia oreophila (Kearney) Wherry
@@ -590,7 +606,9 @@
           <t>Livres de Wherry</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Wherry, Edgar T. Wild Flowers of Mount Desert Island, Maine. Garden Club de Mount Desert, Bar Harbor, Maine. 1928. 164 pp. ill.
 Wherry, Edgar T. The Wild Flower Guide, Northeastern and Midland United States. Doubleday, Garden City, New York. 1948. 202 p. ill.
